--- a/fantasy football 2014.xlsx
+++ b/fantasy football 2014.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Football Outsiders" sheetId="6" r:id="rId1"/>
-    <sheet name="Matthew Berry" sheetId="3" r:id="rId2"/>
-    <sheet name="Karabell" sheetId="11" r:id="rId3"/>
-    <sheet name="Harris" sheetId="13" r:id="rId4"/>
+    <sheet name="Master Sheet" sheetId="21" r:id="rId1"/>
+    <sheet name="Football Outsiders" sheetId="6" r:id="rId2"/>
+    <sheet name="Matthew Berry" sheetId="3" r:id="rId3"/>
+    <sheet name="Karabell" sheetId="11" r:id="rId4"/>
+    <sheet name="Harris" sheetId="13" r:id="rId5"/>
+    <sheet name="Eisenberg" sheetId="17" r:id="rId6"/>
+    <sheet name="Richard" sheetId="20" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Matthew Berry'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Matthew Berry'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="361">
   <si>
     <t>Rank</t>
   </si>
@@ -662,6 +665,39 @@
     <t>K</t>
   </si>
   <si>
+    <t>Seahawks</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>Patriots</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
+    <t>Bengals</t>
+  </si>
+  <si>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t>49ers</t>
+  </si>
+  <si>
+    <t>Saints</t>
+  </si>
+  <si>
+    <t>Bears</t>
+  </si>
+  <si>
+    <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Packers</t>
+  </si>
+  <si>
     <t>Jacquizz Rodgers</t>
   </si>
   <si>
@@ -1032,6 +1068,54 @@
   </si>
   <si>
     <t>Kenny Britt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seahawks S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rams S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriots  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panthers C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengals C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49ers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardinals A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelers P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broncos D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiefs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saints  </t>
+  </si>
+  <si>
+    <t>Davante Adams</t>
+  </si>
+  <si>
+    <t>Jace Amaro</t>
+  </si>
+  <si>
+    <t>Steelers</t>
+  </si>
+  <si>
+    <t>Lance Moore</t>
+  </si>
+  <si>
+    <t>Josh McCown</t>
   </si>
 </sst>
 </file>
@@ -1349,6 +1433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1363,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1854,7 +1950,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +2062,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2110,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2158,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2190,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2198,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2238,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2246,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2262,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2302,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2318,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2326,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2350,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2358,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2366,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2390,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2422,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2430,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2454,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2462,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2470,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2486,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2502,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2510,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2518,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2526,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2574,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2582,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2622,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2630,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2662,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2670,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2678,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2686,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2694,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2718,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2734,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2750,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2758,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2782,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2806,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2822,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2830,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2838,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2846,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2854,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2878,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2886,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2902,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2910,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2934,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2942,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +2950,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2982,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2990,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +3006,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +3014,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +3022,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +3030,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +3038,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +3046,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +3054,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +3078,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +3086,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +3094,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3110,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3022,7 +3118,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,7 +3126,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3150,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3182,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3190,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,7 +3206,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3214,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3126,7 +3222,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,7 +3230,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3142,7 +3238,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3158,7 +3254,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3270,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3278,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3286,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3294,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3206,7 +3302,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3318,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3342,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +3350,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,7 +3358,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3270,7 +3366,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,7 +3374,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3286,7 +3382,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +3398,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3414,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3422,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,7 +3430,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3350,7 +3446,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3358,7 +3454,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3462,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3470,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,7 +3478,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3486,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3502,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3510,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3518,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3438,7 +3534,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3454,7 +3550,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3590,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3622,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3630,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3542,7 +3638,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3646,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3574,13 +3670,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="I28:J30"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6411,7 +6507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C200"/>
   <sheetViews>
@@ -8086,7 +8182,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -8110,7 +8206,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -8122,7 +8218,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -8194,7 +8290,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -8206,7 +8302,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -8278,7 +8374,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -8302,7 +8398,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -8422,7 +8518,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -8470,7 +8566,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -8482,7 +8578,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -8518,7 +8614,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -8530,7 +8626,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -8542,7 +8638,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -8554,7 +8650,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -8590,7 +8686,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -8650,7 +8746,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
@@ -8830,7 +8926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
@@ -8848,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9816,7 +9912,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -9936,7 +10032,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -9944,7 +10040,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -9984,7 +10080,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -10032,7 +10128,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -10040,7 +10136,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -10048,7 +10144,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -10096,7 +10192,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -10144,7 +10240,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -10152,7 +10248,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -10168,7 +10264,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -10200,7 +10296,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -10208,7 +10304,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -10216,7 +10312,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -10224,7 +10320,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -10264,7 +10360,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -10272,7 +10368,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -10280,7 +10376,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -10304,7 +10400,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -10320,7 +10416,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -10344,7 +10440,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -10400,7 +10496,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -10408,7 +10504,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -10416,7 +10512,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -10448,7 +10544,3248 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B201"/>
+  <sheetViews>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
